--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il1rap</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H2">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I2">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J2">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18262701237845</v>
+        <v>1.393808333333333</v>
       </c>
       <c r="N2">
-        <v>1.18262701237845</v>
+        <v>4.181425</v>
       </c>
       <c r="O2">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="P2">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="Q2">
-        <v>6.804148744736177</v>
+        <v>0.05392226299166666</v>
       </c>
       <c r="R2">
-        <v>6.804148744736177</v>
+        <v>0.485300366925</v>
       </c>
       <c r="S2">
-        <v>0.00081761908036352</v>
+        <v>5.177152636400209E-06</v>
       </c>
       <c r="T2">
-        <v>0.00081761908036352</v>
+        <v>5.177152636400209E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -602,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H3">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I3">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J3">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.548117209544269</v>
+        <v>9.765272666666666</v>
       </c>
       <c r="N3">
-        <v>9.548117209544269</v>
+        <v>29.295818</v>
       </c>
       <c r="O3">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435453</v>
       </c>
       <c r="P3">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435455</v>
       </c>
       <c r="Q3">
-        <v>54.93431914366306</v>
+        <v>0.3777891036553333</v>
       </c>
       <c r="R3">
-        <v>54.93431914366306</v>
+        <v>3.400101932898</v>
       </c>
       <c r="S3">
-        <v>0.006601170724462087</v>
+        <v>3.627206547868267E-05</v>
       </c>
       <c r="T3">
-        <v>0.006601170724462087</v>
+        <v>3.627206547868267E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H4">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I4">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J4">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.9584472411898</v>
+        <v>7.943370666666667</v>
       </c>
       <c r="N4">
-        <v>4.9584472411898</v>
+        <v>23.830112</v>
       </c>
       <c r="O4">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439083</v>
       </c>
       <c r="P4">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439085</v>
       </c>
       <c r="Q4">
-        <v>28.52802465938069</v>
+        <v>0.3073051809813333</v>
       </c>
       <c r="R4">
-        <v>28.52802465938069</v>
+        <v>2.765746628832</v>
       </c>
       <c r="S4">
-        <v>0.003428063988847303</v>
+        <v>2.950480450241538E-05</v>
       </c>
       <c r="T4">
-        <v>0.003428063988847303</v>
+        <v>2.950480450241539E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H5">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I5">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J5">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.68345726519315</v>
+        <v>4.317150333333333</v>
       </c>
       <c r="N5">
-        <v>3.68345726519315</v>
+        <v>12.951451</v>
       </c>
       <c r="O5">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150776</v>
       </c>
       <c r="P5">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150777</v>
       </c>
       <c r="Q5">
-        <v>21.19247308316431</v>
+        <v>0.1670175949456666</v>
       </c>
       <c r="R5">
-        <v>21.19247308316431</v>
+        <v>1.503158354511</v>
       </c>
       <c r="S5">
-        <v>0.002546589000760786</v>
+        <v>1.603559520734155E-05</v>
       </c>
       <c r="T5">
-        <v>0.002546589000760786</v>
+        <v>1.603559520734155E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H6">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I6">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J6">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.2880191622351</v>
+        <v>71.75082300000001</v>
       </c>
       <c r="N6">
-        <v>62.2880191622351</v>
+        <v>215.252469</v>
       </c>
       <c r="O6">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390701</v>
       </c>
       <c r="P6">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390702</v>
       </c>
       <c r="Q6">
-        <v>358.3690740688072</v>
+        <v>2.775824089401</v>
       </c>
       <c r="R6">
-        <v>358.3690740688072</v>
+        <v>24.982416804609</v>
       </c>
       <c r="S6">
-        <v>0.04306334322828292</v>
+        <v>0.000266510791745638</v>
       </c>
       <c r="T6">
-        <v>0.04306334322828292</v>
+        <v>0.000266510791745638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H7">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I7">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J7">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.96822318858336</v>
+        <v>5.114546</v>
       </c>
       <c r="N7">
-        <v>4.96822318858336</v>
+        <v>15.343638</v>
       </c>
       <c r="O7">
-        <v>0.05735064972776276</v>
+        <v>0.0510001244353952</v>
       </c>
       <c r="P7">
-        <v>0.05735064972776276</v>
+        <v>0.05100012443539521</v>
       </c>
       <c r="Q7">
-        <v>28.58426978103805</v>
+        <v>0.197866441102</v>
       </c>
       <c r="R7">
-        <v>28.58426978103805</v>
+        <v>1.780797969918</v>
       </c>
       <c r="S7">
-        <v>0.0034348226718758</v>
+        <v>1.899743650159226E-05</v>
       </c>
       <c r="T7">
-        <v>0.0034348226718758</v>
+        <v>1.899743650159226E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H8">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I8">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J8">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.18262701237845</v>
+        <v>1.393808333333333</v>
       </c>
       <c r="N8">
-        <v>1.18262701237845</v>
+        <v>4.181425</v>
       </c>
       <c r="O8">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="P8">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="Q8">
-        <v>5.502722966512949</v>
+        <v>9.529938217613889</v>
       </c>
       <c r="R8">
-        <v>5.502722966512949</v>
+        <v>85.769443958525</v>
       </c>
       <c r="S8">
-        <v>0.0006612335297425933</v>
+        <v>0.0009149828295536428</v>
       </c>
       <c r="T8">
-        <v>0.0006612335297425933</v>
+        <v>0.0009149828295536428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H9">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I9">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J9">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.548117209544269</v>
+        <v>9.765272666666666</v>
       </c>
       <c r="N9">
-        <v>9.548117209544269</v>
+        <v>29.295818</v>
       </c>
       <c r="O9">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435453</v>
       </c>
       <c r="P9">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435455</v>
       </c>
       <c r="Q9">
-        <v>44.42706221486455</v>
+        <v>66.76846662907045</v>
       </c>
       <c r="R9">
-        <v>44.42706221486455</v>
+        <v>600.916199661634</v>
       </c>
       <c r="S9">
-        <v>0.005338568440243422</v>
+        <v>0.006410534793217275</v>
       </c>
       <c r="T9">
-        <v>0.005338568440243422</v>
+        <v>0.006410534793217276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H10">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I10">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J10">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.9584472411898</v>
+        <v>7.943370666666667</v>
       </c>
       <c r="N10">
-        <v>4.9584472411898</v>
+        <v>23.830112</v>
       </c>
       <c r="O10">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439083</v>
       </c>
       <c r="P10">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439085</v>
       </c>
       <c r="Q10">
-        <v>23.07148511470536</v>
+        <v>54.31150745949511</v>
       </c>
       <c r="R10">
-        <v>23.07148511470536</v>
+        <v>488.803567135456</v>
       </c>
       <c r="S10">
-        <v>0.002772380080123816</v>
+        <v>0.005214524547574145</v>
       </c>
       <c r="T10">
-        <v>0.002772380080123816</v>
+        <v>0.005214524547574146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H11">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I11">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J11">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.68345726519315</v>
+        <v>4.317150333333333</v>
       </c>
       <c r="N11">
-        <v>3.68345726519315</v>
+        <v>12.951451</v>
       </c>
       <c r="O11">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150776</v>
       </c>
       <c r="P11">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150777</v>
       </c>
       <c r="Q11">
-        <v>17.13900044324463</v>
+        <v>29.51781458676255</v>
       </c>
       <c r="R11">
-        <v>17.13900044324463</v>
+        <v>265.660331280863</v>
       </c>
       <c r="S11">
-        <v>0.002059504326914738</v>
+        <v>0.002834047073140223</v>
       </c>
       <c r="T11">
-        <v>0.002059504326914738</v>
+        <v>0.002834047073140224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H12">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I12">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J12">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.2880191622351</v>
+        <v>71.75082300000001</v>
       </c>
       <c r="N12">
-        <v>62.2880191622351</v>
+        <v>215.252469</v>
       </c>
       <c r="O12">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390701</v>
       </c>
       <c r="P12">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390702</v>
       </c>
       <c r="Q12">
-        <v>289.8240188961166</v>
+        <v>490.584604712233</v>
       </c>
       <c r="R12">
-        <v>289.8240188961166</v>
+        <v>4415.261442410098</v>
       </c>
       <c r="S12">
-        <v>0.03482664131650907</v>
+        <v>0.04710172086167462</v>
       </c>
       <c r="T12">
-        <v>0.03482664131650907</v>
+        <v>0.04710172086167463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H13">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I13">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J13">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.96822318858336</v>
+        <v>5.114546</v>
       </c>
       <c r="N13">
-        <v>4.96822318858336</v>
+        <v>15.343638</v>
       </c>
       <c r="O13">
-        <v>0.05735064972776276</v>
+        <v>0.0510001244353952</v>
       </c>
       <c r="P13">
-        <v>0.05735064972776276</v>
+        <v>0.05100012443539521</v>
       </c>
       <c r="Q13">
-        <v>23.11697226295997</v>
+        <v>34.96987801369933</v>
       </c>
       <c r="R13">
-        <v>23.11697226295997</v>
+        <v>314.728902123294</v>
       </c>
       <c r="S13">
-        <v>0.002777846033576563</v>
+        <v>0.00335750738393892</v>
       </c>
       <c r="T13">
-        <v>0.002777846033576563</v>
+        <v>0.00335750738393892</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H14">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I14">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J14">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.18262701237845</v>
+        <v>1.393808333333333</v>
       </c>
       <c r="N14">
-        <v>1.18262701237845</v>
+        <v>4.181425</v>
       </c>
       <c r="O14">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="P14">
-        <v>0.01365164666944975</v>
+        <v>0.01389847670528152</v>
       </c>
       <c r="Q14">
-        <v>101.3008421745614</v>
+        <v>8.085954178088889</v>
       </c>
       <c r="R14">
-        <v>101.3008421745614</v>
+        <v>72.77358760279999</v>
       </c>
       <c r="S14">
-        <v>0.01217279405934363</v>
+        <v>0.0007763438822546024</v>
       </c>
       <c r="T14">
-        <v>0.01217279405934363</v>
+        <v>0.0007763438822546024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H15">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I15">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J15">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.548117209544269</v>
+        <v>9.765272666666666</v>
       </c>
       <c r="N15">
-        <v>9.548117209544269</v>
+        <v>29.295818</v>
       </c>
       <c r="O15">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435453</v>
       </c>
       <c r="P15">
-        <v>0.1102186244173819</v>
+        <v>0.09737523548435455</v>
       </c>
       <c r="Q15">
-        <v>817.8675984772245</v>
+        <v>56.65165391167644</v>
       </c>
       <c r="R15">
-        <v>817.8675984772245</v>
+        <v>509.8648852050879</v>
       </c>
       <c r="S15">
-        <v>0.09827888525267642</v>
+        <v>0.00543920531396456</v>
       </c>
       <c r="T15">
-        <v>0.09827888525267642</v>
+        <v>0.005439205313964561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H16">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I16">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J16">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.9584472411898</v>
+        <v>7.943370666666667</v>
       </c>
       <c r="N16">
-        <v>4.9584472411898</v>
+        <v>23.830112</v>
       </c>
       <c r="O16">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439083</v>
       </c>
       <c r="P16">
-        <v>0.05723780114720514</v>
+        <v>0.07920798687439085</v>
       </c>
       <c r="Q16">
-        <v>424.7280640076561</v>
+        <v>46.08218339219911</v>
       </c>
       <c r="R16">
-        <v>424.7280640076561</v>
+        <v>414.739650529792</v>
       </c>
       <c r="S16">
-        <v>0.05103735707823402</v>
+        <v>0.004424415519743146</v>
       </c>
       <c r="T16">
-        <v>0.05103735707823402</v>
+        <v>0.004424415519743147</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H17">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I17">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J17">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.68345726519315</v>
+        <v>4.317150333333333</v>
       </c>
       <c r="N17">
-        <v>3.68345726519315</v>
+        <v>12.951451</v>
       </c>
       <c r="O17">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150776</v>
       </c>
       <c r="P17">
-        <v>0.04251996325139144</v>
+        <v>0.04304882666150777</v>
       </c>
       <c r="Q17">
-        <v>315.5156437088602</v>
+        <v>25.04525115857955</v>
       </c>
       <c r="R17">
-        <v>315.5156437088602</v>
+        <v>225.407260427216</v>
       </c>
       <c r="S17">
-        <v>0.03791386992371592</v>
+        <v>0.002404629940790581</v>
       </c>
       <c r="T17">
-        <v>0.03791386992371592</v>
+        <v>0.002404629940790581</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H18">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I18">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J18">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>62.2880191622351</v>
+        <v>71.75082300000001</v>
       </c>
       <c r="N18">
-        <v>62.2880191622351</v>
+        <v>215.252469</v>
       </c>
       <c r="O18">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390701</v>
       </c>
       <c r="P18">
-        <v>0.719021314786809</v>
+        <v>0.7154693498390702</v>
       </c>
       <c r="Q18">
-        <v>5335.434361362651</v>
+        <v>416.2508238350561</v>
       </c>
       <c r="R18">
-        <v>5335.434361362651</v>
+        <v>3746.257414515504</v>
       </c>
       <c r="S18">
-        <v>0.641131330242017</v>
+        <v>0.03996482956129752</v>
       </c>
       <c r="T18">
-        <v>0.641131330242017</v>
+        <v>0.03996482956129752</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H19">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I19">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J19">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.96822318858336</v>
+        <v>5.114546</v>
       </c>
       <c r="N19">
-        <v>4.96822318858336</v>
+        <v>15.343638</v>
       </c>
       <c r="O19">
-        <v>0.05735064972776276</v>
+        <v>0.0510001244353952</v>
       </c>
       <c r="P19">
-        <v>0.05735064972776276</v>
+        <v>0.05100012443539521</v>
       </c>
       <c r="Q19">
-        <v>425.5654469641219</v>
+        <v>29.67121347224533</v>
       </c>
       <c r="R19">
-        <v>425.5654469641219</v>
+        <v>267.040921250208</v>
       </c>
       <c r="S19">
-        <v>0.0511379810223104</v>
+        <v>0.002848775116815258</v>
       </c>
       <c r="T19">
-        <v>0.0511379810223104</v>
+        <v>0.002848775116815259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H20">
+        <v>273.542866</v>
+      </c>
+      <c r="I20">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J20">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.393808333333333</v>
+      </c>
+      <c r="N20">
+        <v>4.181425</v>
+      </c>
+      <c r="O20">
+        <v>0.01389847670528152</v>
+      </c>
+      <c r="P20">
+        <v>0.01389847670528152</v>
+      </c>
+      <c r="Q20">
+        <v>127.0887753848944</v>
+      </c>
+      <c r="R20">
+        <v>1143.79897846405</v>
+      </c>
+      <c r="S20">
+        <v>0.01220197284083688</v>
+      </c>
+      <c r="T20">
+        <v>0.01220197284083688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H21">
+        <v>273.542866</v>
+      </c>
+      <c r="I21">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J21">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.765272666666666</v>
+      </c>
+      <c r="N21">
+        <v>29.295818</v>
+      </c>
+      <c r="O21">
+        <v>0.09737523548435453</v>
+      </c>
+      <c r="P21">
+        <v>0.09737523548435455</v>
+      </c>
+      <c r="Q21">
+        <v>890.4068908371542</v>
+      </c>
+      <c r="R21">
+        <v>8013.662017534388</v>
+      </c>
+      <c r="S21">
+        <v>0.08548922331169402</v>
+      </c>
+      <c r="T21">
+        <v>0.08548922331169403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H22">
+        <v>273.542866</v>
+      </c>
+      <c r="I22">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J22">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.943370666666667</v>
+      </c>
+      <c r="N22">
+        <v>23.830112</v>
+      </c>
+      <c r="O22">
+        <v>0.07920798687439083</v>
+      </c>
+      <c r="P22">
+        <v>0.07920798687439085</v>
+      </c>
+      <c r="Q22">
+        <v>724.2841259534435</v>
+      </c>
+      <c r="R22">
+        <v>6518.557133580992</v>
+      </c>
+      <c r="S22">
+        <v>0.06953954200257112</v>
+      </c>
+      <c r="T22">
+        <v>0.06953954200257115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H23">
+        <v>273.542866</v>
+      </c>
+      <c r="I23">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J23">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.317150333333333</v>
+      </c>
+      <c r="N23">
+        <v>12.951451</v>
+      </c>
+      <c r="O23">
+        <v>0.04304882666150776</v>
+      </c>
+      <c r="P23">
+        <v>0.04304882666150777</v>
+      </c>
+      <c r="Q23">
+        <v>393.6418917109518</v>
+      </c>
+      <c r="R23">
+        <v>3542.777025398566</v>
+      </c>
+      <c r="S23">
+        <v>0.03779411405236962</v>
+      </c>
+      <c r="T23">
+        <v>0.03779411405236963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H24">
+        <v>273.542866</v>
+      </c>
+      <c r="I24">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J24">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>71.75082300000001</v>
+      </c>
+      <c r="N24">
+        <v>215.252469</v>
+      </c>
+      <c r="O24">
+        <v>0.7154693498390701</v>
+      </c>
+      <c r="P24">
+        <v>0.7154693498390702</v>
+      </c>
+      <c r="Q24">
+        <v>6542.308587092907</v>
+      </c>
+      <c r="R24">
+        <v>58880.77728383616</v>
+      </c>
+      <c r="S24">
+        <v>0.6281362886243523</v>
+      </c>
+      <c r="T24">
+        <v>0.6281362886243524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H25">
+        <v>273.542866</v>
+      </c>
+      <c r="I25">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J25">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.114546</v>
+      </c>
+      <c r="N25">
+        <v>15.343638</v>
+      </c>
+      <c r="O25">
+        <v>0.0510001244353952</v>
+      </c>
+      <c r="P25">
+        <v>0.05100012443539521</v>
+      </c>
+      <c r="Q25">
+        <v>466.3491903762786</v>
+      </c>
+      <c r="R25">
+        <v>4197.142713386508</v>
+      </c>
+      <c r="S25">
+        <v>0.04477484449813943</v>
+      </c>
+      <c r="T25">
+        <v>0.04477484449813944</v>
       </c>
     </row>
   </sheetData>
